--- a/reports/xlsx/benchmark_constraint_4413_everyday_free_until_0945.xlsx
+++ b/reports/xlsx/benchmark_constraint_4413_everyday_free_until_0945.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIXED_TIME_CONSTRAINTS: [['monday', 1, 10, -100], ['tuesday', 1, 10, -100], ['wednesday', 1, 10, -100], ['thursday', 1, 10, -100], ['friday', 1, 10, -100], ['saturday', 1, 10, -100]]</t>
+          <t>FIXED_TIME_CONSTRAINTS: [['monday', 1, 10, -100], ['tuesday', 1, 10, -100], ['wednesday', 1, 10, -100], ['thursday', 1, 10, -100], ['friday', 1, 10, -100], ['saturday', 1, 10, -100], ['monday', 10, 13, 10], ['tuesday', 10, 13, 10], ['wednesday', 10, 13, 10], ['thursday', 10, 13, 10], ['friday', 10, 13, 10], ['saturday', 10, 13, 10], ['monday', 14, 17, 0], ['tuesday', 14, 17, 0], ['wednesday', 14, 17, 0], ['thursday', 14, 17, 0], ['friday', 14, 17, 0], ['saturday', 14, 17, 0], ['monday', 18, 23, -10], ['tuesday', 18, 23, -10], ['wednesday', 18, 23, -10], ['thursday', 18, 23, -10], ['friday', 18, 23, -10], ['saturday', 18, 23, -10]]</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>offering_order</t>
+          <t>ilp_gpu</t>
         </is>
       </c>
       <c r="P6" s="1" t="n"/>
@@ -520,7 +520,7 @@
       <c r="AA6" s="1" t="n"/>
       <c r="AB6" s="1" t="inlineStr">
         <is>
-          <t>hill_climbing_v1</t>
+          <t>offering_order</t>
         </is>
       </c>
       <c r="AC6" s="1" t="n"/>
@@ -537,7 +537,7 @@
       <c r="AN6" s="1" t="n"/>
       <c r="AO6" s="1" t="inlineStr">
         <is>
-          <t>hill_climbing_v3</t>
+          <t>hill_climbing_v1</t>
         </is>
       </c>
       <c r="AP6" s="1" t="n"/>
@@ -554,11 +554,28 @@
       <c r="BA6" s="1" t="n"/>
       <c r="BB6" s="1" t="inlineStr">
         <is>
-          <t>score_percent</t>
+          <t>hill_climbing_v3</t>
         </is>
       </c>
       <c r="BC6" s="1" t="n"/>
       <c r="BD6" s="1" t="n"/>
+      <c r="BE6" s="1" t="n"/>
+      <c r="BF6" s="1" t="n"/>
+      <c r="BG6" s="1" t="n"/>
+      <c r="BH6" s="1" t="n"/>
+      <c r="BI6" s="1" t="n"/>
+      <c r="BJ6" s="1" t="n"/>
+      <c r="BK6" s="1" t="n"/>
+      <c r="BL6" s="1" t="n"/>
+      <c r="BM6" s="1" t="n"/>
+      <c r="BN6" s="1" t="n"/>
+      <c r="BO6" s="1" t="inlineStr">
+        <is>
+          <t>score_percent</t>
+        </is>
+      </c>
+      <c r="BP6" s="1" t="n"/>
+      <c r="BQ6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr"/>
@@ -824,15 +841,80 @@
       </c>
       <c r="BB7" s="1" t="inlineStr">
         <is>
+          <t>courses</t>
+        </is>
+      </c>
+      <c r="BC7" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="BD7" s="1" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="BE7" s="1" t="inlineStr">
+        <is>
+          <t>timings</t>
+        </is>
+      </c>
+      <c r="BF7" s="1" t="inlineStr">
+        <is>
+          <t>timings_mean</t>
+        </is>
+      </c>
+      <c r="BG7" s="1" t="inlineStr">
+        <is>
+          <t>timings_median</t>
+        </is>
+      </c>
+      <c r="BH7" s="1" t="inlineStr">
+        <is>
+          <t>timings_stdev</t>
+        </is>
+      </c>
+      <c r="BI7" s="1" t="inlineStr">
+        <is>
+          <t>memory_mean</t>
+        </is>
+      </c>
+      <c r="BJ7" s="1" t="inlineStr">
+        <is>
+          <t>memory_median</t>
+        </is>
+      </c>
+      <c r="BK7" s="1" t="inlineStr">
+        <is>
+          <t>memory_stdev</t>
+        </is>
+      </c>
+      <c r="BL7" s="1" t="inlineStr">
+        <is>
+          <t>memory_min</t>
+        </is>
+      </c>
+      <c r="BM7" s="1" t="inlineStr">
+        <is>
+          <t>memory_max</t>
+        </is>
+      </c>
+      <c r="BN7" s="1" t="inlineStr">
+        <is>
+          <t>memory_peak</t>
+        </is>
+      </c>
+      <c r="BO7" s="1" t="inlineStr">
+        <is>
           <t>hill_climbing_v1_vs_ilp</t>
         </is>
       </c>
-      <c r="BC7" s="1" t="inlineStr">
+      <c r="BP7" s="1" t="inlineStr">
         <is>
           <t>hill_climbing_v3_vs_ilp</t>
         </is>
       </c>
-      <c r="BD7" s="1" t="inlineStr">
+      <c r="BQ7" s="1" t="inlineStr">
         <is>
           <t>offering_order_vs_ilp</t>
         </is>
@@ -843,178 +925,3726 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>140</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[0.5425585000775754]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5425585000775754</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5425585000775754</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>559053.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>633478</v>
+      </c>
+      <c r="K9" t="n">
+        <v>556850.8680449248</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2261315</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2519704</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>140</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[0.5435374998487532]</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5435374998487532</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.5435374998487532</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>503164.8529411764</v>
+      </c>
+      <c r="W9" t="n">
+        <v>209189</v>
+      </c>
+      <c r="X9" t="n">
+        <v>497357.4944493927</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3229</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1740910</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2520264</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>[0.3021010998636484]</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.3021010998636484</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3021010998636484</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6070.833333333333</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6258.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1105.775978736885</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>7285</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8741</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>[0.6676288000307977]</t>
+        </is>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.6676288000307977</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.6676288000307977</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>7997.59375</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7529.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>2159.834041703578</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>12070</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>16649</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>140</v>
+      </c>
+      <c r="BD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>[0.3025247002951801]</t>
+        </is>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.3025247002951801</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.3025247002951801</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>7698.846153846154</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1477.214487143164</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>8888</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>13919</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>280</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[0.607744200155139]</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.607744200155139</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.607744200155139</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>614592.6923076923</v>
+      </c>
+      <c r="J10" t="n">
+        <v>908896</v>
+      </c>
+      <c r="K10" t="n">
+        <v>544208.695007142</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2262087</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2520476</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[0.6052973000332713]</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>0.6052973000332713</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6052973000332713</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>587517.4054054054</v>
+      </c>
+      <c r="W10" t="n">
+        <v>908441</v>
+      </c>
+      <c r="X10" t="n">
+        <v>489764.3854960861</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1771444</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2519896</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>280</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>[0.3152602002955973]</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3152602002955973</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3152602002955973</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6222.928571428572</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6443</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1087.721858132556</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7261</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8797</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>280</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>[1.3841300997883081]</t>
+        </is>
+      </c>
+      <c r="AS10" t="n">
+        <v>1.384130099788308</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.384130099788308</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>9408.315789473685</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>9793</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2566.702902821708</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>13202</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>16505</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>280</v>
+      </c>
+      <c r="BD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>[0.6407645996659994]</t>
+        </is>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.6407645996659994</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.6407645996659994</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>8734.799999999999</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>8810.5</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1306.187196807352</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>3389</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>10871</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>14473</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[4.150423500221223]</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4.150423500221223</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.150423500221223</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4288901.564417178</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4617488</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1002420.534934396</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3531</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7489357</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7931043</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="C11" t="n">
+        <v>390</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[0.6570163001306355]</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6570163001306355</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6570163001306355</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>556257.3513513514</v>
+      </c>
+      <c r="J11" t="n">
+        <v>908706</v>
+      </c>
+      <c r="K11" t="n">
+        <v>488095.3361392638</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1741098</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2520452</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[0.07213359978049994]</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>0.07213359978049994</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.07213359978049994</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>68024.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>108590</v>
-      </c>
-      <c r="X9" t="n">
-        <v>55644.73298704919</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>3499</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>108646</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>108750</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="P11" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[0.5868174000643194]</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5868174000643194</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.5868174000643194</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>588494.6666666666</v>
+      </c>
+      <c r="W11" t="n">
+        <v>908466</v>
+      </c>
+      <c r="X11" t="n">
+        <v>475904.7277804366</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1740726</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2520080</v>
+      </c>
+      <c r="AB11" t="n">
         <v>3</v>
       </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>[0.11224899999797344]</t>
-        </is>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.1122489999979734</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.1122489999979734</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15079</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>18393</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>6134.301155524292</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>3731</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21363</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>27253</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AC11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>[0.3166302000172436]</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.3166302000172436</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.3166302000172436</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6101</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>6225</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1097.632224381191</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>7297</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>8741</v>
+      </c>
+      <c r="AO11" t="n">
         <v>3</v>
       </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>[0.08347079996019602]</t>
-        </is>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.08347079996019602</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0.08347079996019602</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>9882.333333333334</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>11204</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3148.528714600943</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>3739</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>12264</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>15119</v>
-      </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>390</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>[1.9715379001572728]</t>
+        </is>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.971537900157273</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.971537900157273</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>10201.31395348837</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>10706.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>2403.162398182508</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>13564</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>16877</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>390</v>
+      </c>
+      <c r="BD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>[0.9596337000839412]</t>
+        </is>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.9596337000839412</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.9596337000839412</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>8543.40909090909</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>8567.5</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1189.576264565563</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>10830</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>14639</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.8974358974358975</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>490</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[0.5775045999325812]</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5775045999325812</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5775045999325812</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>544623.6756756756</v>
+      </c>
+      <c r="J12" t="n">
+        <v>908824</v>
+      </c>
+      <c r="K12" t="n">
+        <v>468450.6202116988</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1741098</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2520452</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[0.5900274002924562]</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5900274002924562</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.5900274002924562</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>586358.2121212122</v>
+      </c>
+      <c r="W12" t="n">
+        <v>908290</v>
+      </c>
+      <c r="X12" t="n">
+        <v>497396.7697579794</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1771324</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2519840</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>460</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>[0.2995889000594616]</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.2995889000594616</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.2995889000594616</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6694.866666666667</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>6798</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1036.112781138277</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3485</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>7858</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9369</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>490</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>[2.606014800257981]</t>
+        </is>
+      </c>
+      <c r="AS12" t="n">
+        <v>2.606014800257981</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.606014800257981</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>10861.016</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>11407</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2386.01800477213</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>14369</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>17981</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>490</v>
+      </c>
+      <c r="BD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>[1.3111638999544084]</t>
+        </is>
+      </c>
+      <c r="BF12" t="n">
+        <v>1.311163899954408</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.311163899954408</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>8860.259259259259</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>8822</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1205.66720251259</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>12045</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>15455</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>580</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[0.5862516001798213]</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5862516001798213</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5862516001798213</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>585562.8285714285</v>
+      </c>
+      <c r="J13" t="n">
+        <v>908917</v>
+      </c>
+      <c r="K13" t="n">
+        <v>465757.1049014134</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1661122</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2520372</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>580</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[0.5859762001782656]</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5859762001782656</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.5859762001782656</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>558594.6756756756</v>
+      </c>
+      <c r="W13" t="n">
+        <v>908122</v>
+      </c>
+      <c r="X13" t="n">
+        <v>488865.4247805749</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1740570</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2519924</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>560</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>[0.30580850038677454]</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.3058085003867745</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.3058085003867745</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6079.833333333333</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>6243</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1111.332847066844</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>7228</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>8741</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>[3.2828841004520655]</t>
+        </is>
+      </c>
+      <c r="AS13" t="n">
+        <v>3.282884100452065</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.282884100452065</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>11333.18954248366</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>11881</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2476.573906129494</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>15388</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>19148</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>560</v>
+      </c>
+      <c r="BD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>[1.634593099821359]</t>
+        </is>
+      </c>
+      <c r="BF13" t="n">
+        <v>1.634593099821359</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.634593099821359</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>9024.440000000001</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>9016</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1170.752509678676</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>12531</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>16102</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>650</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0.5818088999949396]</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5818088999949396</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5818088999949396</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>599464.3714285714</v>
+      </c>
+      <c r="J14" t="n">
+        <v>908886</v>
+      </c>
+      <c r="K14" t="n">
+        <v>475279.8210175514</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3229</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1741306</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2520660</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[0.588398499879986]</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>0.588398499879986</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.588398499879986</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>598093.0285714286</v>
+      </c>
+      <c r="W14" t="n">
+        <v>908210</v>
+      </c>
+      <c r="X14" t="n">
+        <v>536140.9268812514</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2261451</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2519840</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>560</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>[0.30724099976941943]</t>
+        </is>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.3072409997694194</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.3072409997694194</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6109.642857142857</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6287.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1048.584878420792</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>7286</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8797</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>650</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>[3.926185099873692]</t>
+        </is>
+      </c>
+      <c r="AS14" t="n">
+        <v>3.926185099873692</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.926185099873692</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>12010.01149425287</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>12461.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>2584.167302491455</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>16332</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>20854</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>610</v>
+      </c>
+      <c r="BD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>[1.9855472999624908]</t>
+        </is>
+      </c>
+      <c r="BF14" t="n">
+        <v>1.985547299962491</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.985547299962491</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>9065.147727272728</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>9164</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1078.780053214355</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>10942</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>16519</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>700</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[0.5837130998261273]</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5837130998261273</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5837130998261273</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>570515.972972973</v>
+      </c>
+      <c r="J15" t="n">
+        <v>908674</v>
+      </c>
+      <c r="K15" t="n">
+        <v>474916.2436571484</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1737934</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2520476</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[0.5878439000807703]</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>0.5878439000807703</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.5878439000807703</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>569147.4358974359</v>
+      </c>
+      <c r="W15" t="n">
+        <v>908441</v>
+      </c>
+      <c r="X15" t="n">
+        <v>477511.4917622289</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1740598</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2519952</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>650</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>[0.30443309992551804]</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.304433099925518</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.304433099925518</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6412.714285714285</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>6499</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1082.624192809833</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>3197</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>7702</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>9105</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>700</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>[4.4556199996732175]</t>
+        </is>
+      </c>
+      <c r="AS15" t="n">
+        <v>4.455619999673218</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4.455619999673218</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>12518.79899497487</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>13067</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>2507.716730776658</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>3229</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>16342</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>21884</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>660</v>
+      </c>
+      <c r="BD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>[2.4996036998927593]</t>
+        </is>
+      </c>
+      <c r="BF15" t="n">
+        <v>2.499603699892759</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>2.499603699892759</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>9416.142857142857</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>9461</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1297.953229190033</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>13018</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>17619</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>750</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[0.5908427997492254]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5908427997492254</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5908427997492254</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>572996.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>908861</v>
+      </c>
+      <c r="K16" t="n">
+        <v>454044.8803145034</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1544409</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2520344</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[0.5915602999739349]</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5915602999739349</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.5915602999739349</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>562952.5555555555</v>
+      </c>
+      <c r="W16" t="n">
+        <v>908108</v>
+      </c>
+      <c r="X16" t="n">
+        <v>452437.5958947863</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1559713</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2519868</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>550</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>[0.301589900162071]</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.301589900162071</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.301589900162071</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6197.357142857143</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>6334.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1096.120263414618</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>7381</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>8905</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>750</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>[5.01299379998818]</t>
+        </is>
+      </c>
+      <c r="AS16" t="n">
+        <v>5.01299379998818</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>5.01299379998818</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>12696.1718061674</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>13073</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>2756.63487805023</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>18084</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>22883</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>[2.7097650999203324]</t>
+        </is>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.709765099920332</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>2.709765099920332</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>9585.950000000001</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>9595.5</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1444.494234712499</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>15311</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>18259</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>790</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[0.6223167995922267]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6223167995922267</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6223167995922267</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>586866.6944444445</v>
+      </c>
+      <c r="J17" t="n">
+        <v>908893</v>
+      </c>
+      <c r="K17" t="n">
+        <v>475731.5438701489</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1741066</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2520420</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>790</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[0.594389499630779]</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>0.594389499630779</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.594389499630779</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>604954.6111111111</v>
+      </c>
+      <c r="W17" t="n">
+        <v>908653</v>
+      </c>
+      <c r="X17" t="n">
+        <v>486481.8552382153</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3229</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1749923</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2520152</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>510</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>[0.30074060009792447]</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.3007406000979245</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.3007406000979245</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6193.428571428572</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>6287.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1088.341413788446</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>7318</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>9185</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>790</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>[5.590891900006682]</t>
+        </is>
+      </c>
+      <c r="AS17" t="n">
+        <v>5.590891900006682</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5.590891900006682</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>12985.00803212851</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>13203</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>2875.35625982294</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>18584</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>23663</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>[2.9076950000599027]</t>
+        </is>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.907695000059903</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>2.907695000059903</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>9959.561538461538</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>9961</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1479.984124175516</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>14058</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>19131</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0.8860759493670886</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0.6455696202531646</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>790</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[0.6055092001333833]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6055092001333833</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6055092001333833</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>627089.4571428571</v>
+      </c>
+      <c r="J18" t="n">
+        <v>908937</v>
+      </c>
+      <c r="K18" t="n">
+        <v>478452.7728325928</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1740946</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2520300</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" t="n">
+        <v>790</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>[0.6051759999245405]</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>0.6051759999245405</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.6051759999245405</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>563165.7</v>
+      </c>
+      <c r="W18" t="n">
+        <v>908388</v>
+      </c>
+      <c r="X18" t="n">
+        <v>468261.2338970412</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1740598</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2519952</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>560</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>[0.29930719966068864]</t>
+        </is>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.2993071996606886</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.2993071996606886</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6083.928571428572</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>6159</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1067.359031534283</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>7317</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9273</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>790</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>[6.187108400277793]</t>
+        </is>
+      </c>
+      <c r="AS18" t="n">
+        <v>6.187108400277793</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>6.187108400277793</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>13624.54512635379</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>13900</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>3104.045727642686</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>19834</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>25046</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>[3.1642022002488375]</t>
+        </is>
+      </c>
+      <c r="BF18" t="n">
+        <v>3.164202200248837</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>3.164202200248837</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>10436.90845070423</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>10348</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1633.858323089269</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>3389</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>15495</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>20369</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0.8860759493670886</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.7088607594936709</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>790</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[0.6364912004210055]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6364912004210055</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6364912004210055</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>645245.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>908968</v>
+      </c>
+      <c r="K19" t="n">
+        <v>531564.3307239878</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2262059</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2520448</v>
+      </c>
+      <c r="O19" t="n">
+        <v>11</v>
+      </c>
+      <c r="P19" t="n">
+        <v>790</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[0.6956266001798213]</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>0.6956266001798213</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.6956266001798213</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>618997.4545454546</v>
+      </c>
+      <c r="W19" t="n">
+        <v>908470</v>
+      </c>
+      <c r="X19" t="n">
+        <v>522149.050146913</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2261615</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2520004</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>610</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>[0.3693913999013603]</t>
+        </is>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.3693913999013603</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.3693913999013603</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>6249.625</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>6339</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1046.557013895246</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>7340</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>9353</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>790</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>[6.681602000258863]</t>
+        </is>
+      </c>
+      <c r="AS19" t="n">
+        <v>6.681602000258863</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>6.681602000258863</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>13766.14675767918</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>14065</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3272.408393544707</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>19890</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>26175</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>[3.2427986999973655]</t>
+        </is>
+      </c>
+      <c r="BF19" t="n">
+        <v>3.242798699997365</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>3.242798699997365</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>10049.60544217687</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>10011</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1596.292573510305</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>15915</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>20048</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0.8860759493670886</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0.7721518987341772</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>790</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[0.6175072998739779]</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6175072998739779</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6175072998739779</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>622002.5641025641</v>
+      </c>
+      <c r="J20" t="n">
+        <v>908813</v>
+      </c>
+      <c r="K20" t="n">
+        <v>495386.6843951721</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1772000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2520452</v>
+      </c>
+      <c r="O20" t="n">
+        <v>12</v>
+      </c>
+      <c r="P20" t="n">
+        <v>790</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[0.629715499933809]</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>0.629715499933809</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.629715499933809</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>623745.8461538461</v>
+      </c>
+      <c r="W20" t="n">
+        <v>908402</v>
+      </c>
+      <c r="X20" t="n">
+        <v>506941.0085217296</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1749667</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2519896</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>650</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>[0.30713959969580173]</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.3071395996958017</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.3071395996958017</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>6439.928571428572</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>6575</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1077.48264053735</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>3229</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>7605</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>9641</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>790</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>[6.927029099781066]</t>
+        </is>
+      </c>
+      <c r="AS20" t="n">
+        <v>6.927029099781066</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>6.927029099781066</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>13802.93602693603</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>13962</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3267.478331668115</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>21048</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>26653</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>660</v>
+      </c>
+      <c r="BD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>[3.2746108998544514]</t>
+        </is>
+      </c>
+      <c r="BF20" t="n">
+        <v>3.274610899854451</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>3.274610899854451</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>10001.55405405405</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>9989</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1462.110683265637</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>14554</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>20216</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0.8354430379746836</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0.8227848101265823</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>780</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[0.6250133998692036]</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6250133998692036</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6250133998692036</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>632518.1052631579</v>
+      </c>
+      <c r="J21" t="n">
+        <v>908799</v>
+      </c>
+      <c r="K21" t="n">
+        <v>466442.4982814813</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1741042</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2520396</v>
+      </c>
+      <c r="O21" t="n">
+        <v>13</v>
+      </c>
+      <c r="P21" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[0.6121714003384113]</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6121714003384113</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6121714003384113</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>611640.1052631579</v>
+      </c>
+      <c r="W21" t="n">
+        <v>908267</v>
+      </c>
+      <c r="X21" t="n">
+        <v>519617.0557579199</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2261503</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2519892</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>650</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>[0.2968140998855233]</t>
+        </is>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.2968140998855233</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.2968140998855233</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6103.846153846154</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>6256</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1087.74896354458</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>7289</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>9381</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>750</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>[6.844842000398785]</t>
+        </is>
+      </c>
+      <c r="AS21" t="n">
+        <v>6.844842000398785</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>6.844842000398785</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>14350.69969040248</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>14463</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>3553.115396131924</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>22618</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>28247</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>560</v>
+      </c>
+      <c r="BD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>[3.361265200190246]</t>
+        </is>
+      </c>
+      <c r="BF21" t="n">
+        <v>3.361265200190246</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>3.361265200190246</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>9974.192052980132</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>9805</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1683.317556554048</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>17485</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>20553</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>740</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[0.6211305996403098]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6211305996403098</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6211305996403098</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>605262.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>909005</v>
+      </c>
+      <c r="K22" t="n">
+        <v>520683.7768693423</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3229</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2262299</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2520688</v>
+      </c>
+      <c r="O22" t="n">
+        <v>14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>740</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[0.6318008000962436]</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>0.6318008000962436</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.6318008000962436</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>582265.8048780488</v>
+      </c>
+      <c r="W22" t="n">
+        <v>908135</v>
+      </c>
+      <c r="X22" t="n">
+        <v>465620.2615069075</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1725849</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2519976</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>650</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>[0.3694894998334348]</t>
+        </is>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.3694894998334348</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.3694894998334348</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6798.470588235294</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>6603</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1589.800385176039</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>9241</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>10981</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>650</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>[6.907943999860436]</t>
+        </is>
+      </c>
+      <c r="AS22" t="n">
+        <v>6.907943999860436</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>6.907943999860436</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>14367.72555205047</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>14487</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3409.110420327313</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>22173</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>28192</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>[3.3265364998951554]</t>
+        </is>
+      </c>
+      <c r="BF22" t="n">
+        <v>3.326536499895155</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>3.326536499895155</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>10157.91082802548</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>10098</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1619.165376865011</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>15037</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>21068</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.8783783783783784</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0.6081081081081081</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0.8783783783783784</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>680</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[0.6388110001571476]</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6388110001571476</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6388110001571476</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>618873.5128205129</v>
+      </c>
+      <c r="J23" t="n">
+        <v>920398</v>
+      </c>
+      <c r="K23" t="n">
+        <v>465618.8106782353</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1752406</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2531840</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15</v>
+      </c>
+      <c r="P23" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[0.6164480000734329]</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>0.6164480000734329</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.6164480000734329</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>606964.4358974359</v>
+      </c>
+      <c r="W23" t="n">
+        <v>908881</v>
+      </c>
+      <c r="X23" t="n">
+        <v>465861.4861560414</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3197</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1740982</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2520336</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>540</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>[0.3805436999537051]</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.3805436999537051</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.3805436999537051</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>7041.35294117647</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>6378</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2257.791646199237</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>11497</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>13469</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>540</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>[6.904070700053126]</t>
+        </is>
+      </c>
+      <c r="AS23" t="n">
+        <v>6.904070700053126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>6.904070700053126</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>14512.82178217822</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>14786</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3386.992379490875</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>3229</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>25856</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>28075</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>[3.448691700119525]</t>
+        </is>
+      </c>
+      <c r="BF23" t="n">
+        <v>3.448691700119525</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>3.448691700119525</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>10303.48447204969</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>10156</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1832.740349536692</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>15449</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>21480</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>610</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[0.6216349001042545]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6216349001042545</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6216349001042545</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>612452.4210526316</v>
+      </c>
+      <c r="J24" t="n">
+        <v>908848</v>
+      </c>
+      <c r="K24" t="n">
+        <v>522338.1487651323</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2261959</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2520348</v>
+      </c>
+      <c r="O24" t="n">
+        <v>16</v>
+      </c>
+      <c r="P24" t="n">
+        <v>610</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[0.6233572997152805]</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>0.6233572997152805</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.6233572997152805</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>567547.7857142857</v>
+      </c>
+      <c r="W24" t="n">
+        <v>908332</v>
+      </c>
+      <c r="X24" t="n">
+        <v>477224.2758159167</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2941</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1740650</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2520004</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>450</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>[3.8564030998386443]</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
+        <v>3.856403099838644</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>3.856403099838644</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>11589.77777777778</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11747</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2397.710918494018</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>15493</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>17057</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>540</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>[6.893681799992919]</t>
+        </is>
+      </c>
+      <c r="AS24" t="n">
+        <v>6.893681799992919</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>6.893681799992919</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>14174.1935483871</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>14369.5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3402.089147032972</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>22988</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>28199</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>[3.3538049003109336]</t>
+        </is>
+      </c>
+      <c r="BF24" t="n">
+        <v>3.353804900310934</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>3.353804900310934</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>10218.66013071895</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>10205</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1683.111624044017</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>3101</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>15157</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>21188</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0.8852459016393442</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0.7377049180327869</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0.7377049180327869</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>500</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[0.6386967999860644]</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6386967999860644</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6386967999860644</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>631471.1282051282</v>
+      </c>
+      <c r="J25" t="n">
+        <v>909021</v>
+      </c>
+      <c r="K25" t="n">
+        <v>541234.3771838971</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2941</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2262059</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2520448</v>
+      </c>
+      <c r="O25" t="n">
+        <v>17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[0.6070333002135158]</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>0.6070333002135158</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.6070333002135158</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>588138.8157894737</v>
+      </c>
+      <c r="W25" t="n">
+        <v>908715</v>
+      </c>
+      <c r="X25" t="n">
+        <v>477771.6387913766</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3229</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1740830</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2520184</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>[10.002894900273532]</t>
+        </is>
+      </c>
+      <c r="AF25" t="n">
+        <v>10.00289490027353</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.00289490027353</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>16627.38095238095</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>16697</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>4879.282645672787</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34650</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>37963</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>540</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>[6.931040899828076]</t>
+        </is>
+      </c>
+      <c r="AS25" t="n">
+        <v>6.931040899828076</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>6.931040899828076</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>14091.92833876221</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>14327</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>3499.350666388145</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>2941</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>24452</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>27763</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>[3.3586022001691163]</t>
+        </is>
+      </c>
+      <c r="BF25" t="n">
+        <v>3.358602200169116</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>3.358602200169116</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>10381.99333333333</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>10264</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1791.111621000051</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>3357</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>17039</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>21360</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BQ25" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="AO6:BA6"/>
+    <mergeCell ref="BB6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
     <mergeCell ref="AB6:AN6"/>
-    <mergeCell ref="BB6:BD6"/>
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="O6:AA6"/>
   </mergeCells>
